--- a/Chapter2/sections/data mining.xlsx
+++ b/Chapter2/sections/data mining.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phong/dev/thesis/Chapter2/sections/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sbkr014/git/thesis/Chapter2/sections/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="18640" tabRatio="500"/>
+    <workbookView xWindow="780" yWindow="460" windowWidth="28020" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Paper</t>
   </si>
@@ -140,14 +140,6 @@
   </si>
   <si>
     <t>INFUSE</t>
-  </si>
-  <si>
-    <t>- in practice, classification of high dimensional data consists of multiple steps. 
-- thousands of features.
-- cross-validation folds to prevent bias.
-- feature selection to simplify the model, shorter training times, enhaced generalization
-- last is apply classifier 
---&gt; the problem is too many features for a complex process</t>
   </si>
   <si>
     <t xml:space="preserve">- contribution is to improve the classification result
@@ -161,12 +153,6 @@
 - select custom attributes to build own model</t>
   </si>
   <si>
-    <t>analyze and improve clasissification performance of multi-class classifiers (class with probability)</t>
-  </si>
-  <si>
-    <t>Alsallakh, 2014</t>
-  </si>
-  <si>
     <t>ScatterBlogs2</t>
   </si>
   <si>
@@ -244,6 +230,16 @@
   </si>
   <si>
     <t>- cluster shown as a line chart, similar to normal time series lines</t>
+  </si>
+  <si>
+    <t>- thousands of features.
+- cross-validation folds to prevent bias.
+- feature selection to simplify the model, shorter training times, enhaced generalization
+- last is apply classifier 
+--&gt; the problem is too many features for a complex process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An essential step in classification of high dimensional datasets is feature selection. The data may contain redundant or irrlevant features, thus can be removed without much loss of information. This step simplifies the model and reduces training time. XXX provide a visualization tool </t>
   </si>
 </sst>
 </file>
@@ -621,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -633,11 +629,12 @@
     <col min="2" max="2" width="32.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="51.83203125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="26.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" style="3" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -651,7 +648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -665,7 +662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -679,7 +676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -687,7 +684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="112" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -701,7 +698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="208" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="208" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -715,7 +712,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -729,7 +726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -737,13 +734,13 @@
         <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -754,104 +751,99 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="192" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="192" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="224" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="224" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="160" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D18" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="160" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
